--- a/Homeworks.xlsx
+++ b/Homeworks.xlsx
@@ -6,7 +6,9 @@
     <sheet state="visible" name="All homeworks" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Git Bash commands collection" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="15.02.2023 Terminal (Find, Grep" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Git Hub" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Синтаксис" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Mobile testing" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Git Hub" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="267">
   <si>
     <t>Theme</t>
   </si>
@@ -53,6 +55,9 @@
   </si>
   <si>
     <t>15.02.2023 Terminal (Find, Grep)</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>Markdowns</t>
@@ -400,6 +405,15 @@
     <t>(посмотреть что в папке)</t>
   </si>
   <si>
+    <t>https://youtu.be/LbbiNXB-jBg?t=170</t>
+  </si>
+  <si>
+    <t>Permission denied</t>
+  </si>
+  <si>
+    <t>Видеоинструкция</t>
+  </si>
+  <si>
     <t>mv folder_1/doc1.txt folder_2</t>
   </si>
   <si>
@@ -478,20 +492,20 @@
     <t>cat doc2.txt</t>
   </si>
   <si>
-    <t>Посмотреть зодержимое файла, находящегося там где мы находимся</t>
+    <t>Посмотреть содержимое файла, находящегося там где мы находимся</t>
   </si>
   <si>
     <t>cat folder_1/doc2.txt</t>
   </si>
   <si>
-    <t>Посмотреть зодержимое файла, находящегося в папке уровнем ниже</t>
+    <t>Посмотреть содержимое файла, находящегося в папке уровнем ниже</t>
   </si>
   <si>
     <t xml:space="preserve">cat ../doc2.txt
 </t>
   </si>
   <si>
-    <t>Посмотреть зодержимое файла, находящегося в папке уровнем выше</t>
+    <t>Посмотреть содержимое файла, находящегося в папке уровнем выше</t>
   </si>
   <si>
     <t>https://youtu.be/LbbiNXB-jBg?t=431</t>
@@ -591,7 +605,226 @@
     <t>Допустим вам не надо искать там этот файлик логов (вы уже итак нашли), и, вам надо, все что вы наши по Анне - сохранить в отдельный файл. Т.е. не просто вывести в консоль, а чтобы сохранить в отдельный файлик чтобы потом передать программисту.</t>
   </si>
   <si>
+    <t>grep -rw anna .</t>
+  </si>
+  <si>
+    <t>-w - искать шаблон как слово, окружённое пробелами;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Все это нужно, для того чтобы снять логи пошаговых действий пользователя. Ставите уникальный идентификатор пользователя (почта, ник и т.д. - что установили программисты) по которому записываются его логи. И все, фильтруете его логи по конкретному его имени. Почему надо фильтровать? Во-первых вы можете не знать где вообще лежит файлик логов - программист например не сказал, или недоступен, долго ждать. Взяли - грепнули по названию пользователя и вот таким образом нашли все что пользователь делает. Потом слили в файлик и пошли программисту отнесли чтобы он пофиксил баг. А если вы это будете делать через какие-нибудь не текстовые а графические редакторы, которые там найдут не найдут, нагрузят систему не нагрузят - гораздо реально проще зайти через терминал, фильтрануться по названию пользователя и слить логи этого пользователя. Так гораздо реально проще. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поскриптуем чуть позже, где-то через месяц (в середине марта). Будем лазить на мой сервак снимать логи. </t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>Будем смотреть через месяц (в середине марта) когда мы будем реально лазить на сервак - там будут ходить пользователи (вы будете этими пользователями) и командой tail прохаваем че там можно делать. Там на самом деле ее классно показывать вкупе с другими командами. Статично эта команда вообще не интересна. cat решает вопросы тейла. Если отобразить реальное изменение файла то там надо в динамике смотреть.</t>
+  </si>
+  <si>
+    <t>https://losst.pro/gerp-poisk-vnutri-fajlov-v-linux#:~:text=%D0%BA%D0%B0%D0%BA%20%D0%B5%D0%B9%20%D0%BF%D0%BE%D0%BB%D1%8C%D0%B7%D0%BE%D0%B2%D0%B0%D1%82%D1%8C%D1%81%D1%8F.-,%D0%A1%D0%B8%D0%BD%D1%82%D0%B0%D0%BA%D1%81%D0%B8%D1%81%20grep,%5B%D0%B8%D0%BC%D1%8F%20%D1%84%D0%B0%D0%B9%D0%BB%D0%B0...%5D&amp;text=%D0%9E%D0%BF%D1%86%D0%B8%D0%B8%20%2D%20%D1%8D%D1%82%D0%BE%20%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5%20%D0%BF%D0%B0%D1%80%D0%B0%D0%BC%D0%B5%D1%82%D1%80%D1%8B%2C%20%D1%81,%D0%BA%D0%BE%D0%BB%D0%B8%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%BE%20%D1%81%D1%82%D1%80%D0%BE%D0%BA%20%D0%B8%D0%BB%D0%B8%20%D1%80%D0%B5%D0%B6%D0%B8%D0%BC%20%D0%B8%D0%BD%D0%B2%D0%B5%D1%80%D1%81%D0%B8%D0%B8.&amp;text=%D0%A4%D0%B0%D0%B9%D0%BB%20%D0%B8%20%D0%BA%D0%BE%D0%BC%D0%B0%D0%BD%D0%B4%D0%B0%20%2D%20%D1%8D%D1%82%D0%BE%20%D1%82%D0%BE%20%D0%BC%D0%B5%D1%81%D1%82%D0%BE%2C%20%D0%B3%D0%B4%D0%B5%20%D0%B1%D1%83%D0%B4%D0%B5%D1%82%20%D0%B2%D0%B5%D1%81%D1%82%D0%B8%D1%81%D1%8C%20%D0%BF%D0%BE%D0%B8%D1%81%D0%BA.</t>
+  </si>
+  <si>
+    <t>-b - показывать номер блока перед строкой;</t>
+  </si>
+  <si>
+    <t>-c - подсчитать количество вхождений шаблона;</t>
+  </si>
+  <si>
+    <t>-h - не выводить имя файла в результатах поиска внутри файлов Linux;</t>
+  </si>
+  <si>
+    <t>-i - не учитывать регистр;</t>
+  </si>
+  <si>
+    <t>-l - отобразить только имена файлов, в которых найден шаблон;</t>
+  </si>
+  <si>
+    <t>-n - показывать номер строки в файле;</t>
+  </si>
+  <si>
+    <t>-s - не показывать сообщения об ошибках;</t>
+  </si>
+  <si>
+    <t>-v - инвертировать поиск, выдавать все строки кроме тех, что содержат шаблон;</t>
+  </si>
+  <si>
+    <t>-e - использовать регулярные выражения при поиске;</t>
+  </si>
+  <si>
+    <t>-An - показать вхождение и n строк до него;</t>
+  </si>
+  <si>
+    <t>-Bn - показать вхождение и n строк после него;</t>
+  </si>
+  <si>
+    <t>-Cn - показать n строк до и после вхождения;</t>
+  </si>
+  <si>
+    <t>https://losst.pro/komanda-find-v-linux</t>
+  </si>
+  <si>
+    <t>find [папка] [параметры] критерий шаблон [действие]</t>
+  </si>
+  <si>
+    <t>Папка - каталог в котором будем искать</t>
+  </si>
+  <si>
+    <t>Параметры - дополнительные параметры, например, глубина поиска, и т д</t>
+  </si>
+  <si>
+    <t>Критерий - по какому критерию будем искать: имя, дата создания, права, владелец и т д.</t>
+  </si>
+  <si>
+    <t>Шаблон - непосредственно значение по которому будем отбирать файлы.</t>
+  </si>
+  <si>
+    <t>Основные параметры команды find</t>
+  </si>
+  <si>
+    <t>-P - никогда не открывать символические ссылки.</t>
+  </si>
+  <si>
+    <t>-L - получает информацию о файлах по символическим ссылкам. Важно для дальнейшей обработки, чтобы обрабатывалась не ссылка, а сам файл.</t>
+  </si>
+  <si>
+    <t>-maxdepth - максимальная глубина поиска по подкаталогам, для поиска только в текущем каталоге установите 1.</t>
+  </si>
+  <si>
+    <t>-depth - искать сначала в текущем каталоге, а потом в подкаталогах.</t>
+  </si>
+  <si>
+    <t>-mount искать файлы только в этой файловой системе.</t>
+  </si>
+  <si>
+    <t>-version - показать версию утилиты find.</t>
+  </si>
+  <si>
+    <t>-print - выводить полные имена файлов.</t>
+  </si>
+  <si>
+    <t>-type f - искать только файлы.</t>
+  </si>
+  <si>
+    <t>-type d - поиск папки в Linux.</t>
+  </si>
+  <si>
+    <t>Критерии</t>
+  </si>
+  <si>
+    <t>-name - поиск файлов по имени.</t>
+  </si>
+  <si>
+    <t>-perm - поиск файлов в Linux по режиму доступа.</t>
+  </si>
+  <si>
+    <t>-user - поиск файлов по владельцу.</t>
+  </si>
+  <si>
+    <t>-group - поиск по группе.</t>
+  </si>
+  <si>
+    <t>-mtime - поиск по времени модификации файла.</t>
+  </si>
+  <si>
+    <t>-atime - поиск файлов по дате последнего чтения.</t>
+  </si>
+  <si>
+    <t>-nogroup - поиск файлов, не принадлежащих ни одной группе.</t>
+  </si>
+  <si>
+    <t>-nouser - поиск файлов без владельцев.</t>
+  </si>
+  <si>
+    <t>-newer - найти файлы новее чем указанный.</t>
+  </si>
+  <si>
+    <t>-size - поиск файлов в Linux по их размеру.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Мобильные приложения существуют:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- нативные
+- гибридные
+- веб
+- PWA progressive web application</t>
+    </r>
+  </si>
+  <si>
+    <t>Нативные</t>
+  </si>
+  <si>
+    <t>Нативка от гибрида отличается только лишь тем как это мобильное приложение было написано - больше оно ничем не отличается.</t>
+  </si>
+  <si>
+    <t>Во многих источниках говорят что гибрит он там подключается к интернету не подключается, короче дичь какую-то пишут на самом деле.</t>
+  </si>
+  <si>
+    <t>Обычный пользователь никогда не отличит гибридное или нативное мобильное приложение - никак.</t>
+  </si>
+  <si>
+    <t>Нативное пишется на языке программирования:
+- если IOS то это SWIFT
+- если Android то это COTLIN (раньше на джаве)</t>
+  </si>
+  <si>
+    <t>Если вы захотите запилить приложение под две платформы под IOS и Android то вам надо содержать две команды программистов.</t>
+  </si>
+  <si>
+    <t>Гибриды</t>
+  </si>
+  <si>
+    <t>Это мобильное приложение которое написано на JS с помощью какого-нибудь там фреймворка для написания мобильных приложений типа REACT NATIVE или IONIC или CORDOVA .</t>
+  </si>
+  <si>
+    <t>В чем суть гибрида - пишется одна кодовая база на JS а потом собирается отдельно под iOS или собирается отдельно под Android</t>
+  </si>
+  <si>
+    <t>И в случае нативки и в случае гибрида вы будете скачивать эти приложения одинаково из аппстора или гугл плея.</t>
+  </si>
+  <si>
+    <t>По большому счету когда вы на гибриде на JS написали код, собрали под IOS - то у вас собралось нативное мобильное приложение. Да ито сказать что функционал IOS приложения, функционал Android приложения они будут абсолютно идентичны - нет. У IOS и Android есть свои особенности системы. И даже JS программисты которые пилят одну кодовую базу - у них все-рвно есть отдельная веточка под IOS и отдельная веточка под Android.</t>
+  </si>
+  <si>
+    <t>И все собственно гибрид на этом заканчивается. Больше никаких отличий у нативов и гибридов нету.</t>
+  </si>
+  <si>
+    <t>Веб приложения</t>
+  </si>
+  <si>
+    <t>Это мобильные версии сайтов, чтобы можно было пальчиком посвайпать</t>
+  </si>
+  <si>
+    <t>PWA - progressive web application</t>
+  </si>
+  <si>
+    <t>Это приложение которое можно установить себе на телефон, но его не надо скачиавть с аппстора или гугл плея. Его с сайта какого-нибудь скачать и себе поставить какбраузерное расширение.</t>
+  </si>
+  <si>
+    <t>С PWA мы еще поработаем, но, тем не менее.</t>
+  </si>
+  <si>
+    <t>Особенности мобильного тестирования</t>
+  </si>
+  <si>
+    <t>Обязательно, когда вас спрашивают про особенности мобильного тестирования, назвать следующие пункты:</t>
+  </si>
+  <si>
+    <t>- прерывание: звоночки, будильники, смски, пуш уведомления, разрядился телефон вам уведомление выскочило - "у вас осталось 20% зарядки", подключили или не подключили наушники что-то там квакнуло. От слова прерывается pipeline работы мобильного приложения чем-то, и, как ваше мобильное приложение отработает этот кейс.</t>
   </si>
   <si>
     <t>Как туда загрузить все</t>
@@ -634,7 +867,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -671,13 +904,72 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF434343"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000080"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFF9900"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF993366"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF99CC00"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="21.0"/>
+      <color rgb="FFFF9900"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
+    </font>
+    <font>
+      <sz val="21.0"/>
+      <color rgb="FF993366"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -686,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -743,6 +1035,39 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,36 +1078,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="18192750" cy="9163050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -794,6 +1090,14 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1061,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>9</v>
@@ -1069,10 +1373,10 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -1084,22 +1388,24 @@
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -1111,10 +1417,10 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -1131,8 +1437,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="Link to job" location="'Git Bash commands collection'!B77" ref="F3"/>
-    <hyperlink display="Link to job" location="'15.02.2023 Terminal (Find, Grep'!B23" ref="F5"/>
+    <hyperlink display="Link to job" location="'Git Bash commands collection'!B78" ref="F3"/>
+    <hyperlink display="Link to job" location="'15.02.2023 Terminal (Find, Grep'!C26" ref="F5"/>
+    <hyperlink display="Link to job" location="#REF!" ref="F7"/>
   </hyperlinks>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1155,26 +1462,26 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1182,533 +1489,544 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
+      <c r="A63" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="B63" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="15" t="s">
-        <v>132</v>
-      </c>
       <c r="B67" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>146</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="9" t="s">
-        <v>155</v>
+      <c r="B77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1721,9 +2039,10 @@
     <hyperlink r:id="rId2" ref="A7"/>
     <hyperlink r:id="rId3" ref="A23"/>
     <hyperlink r:id="rId4" ref="A54"/>
-    <hyperlink r:id="rId5" ref="B77"/>
+    <hyperlink r:id="rId5" ref="A63"/>
+    <hyperlink r:id="rId6" ref="B78"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1747,74 +2066,74 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
@@ -1822,65 +2141,82 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="18" t="s">
-        <v>185</v>
+      <c r="B22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="16">
-        <v>0.9381944444444444</v>
+      <c r="B23" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B22:C22"/>
+  <mergeCells count="2">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1896,62 +2232,466 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="89.75"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A18"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="31.38"/>
+    <col customWidth="1" min="3" max="3" width="69.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16">
+        <v>0.7590277777777777</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16">
+        <v>0.6895833333333333</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16">
+        <v>0.7236111111111111</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="16">
+        <v>0.7590277777777777</v>
+      </c>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="29"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="2" max="2" width="82.13"/>
   </cols>
   <sheetData>
     <row r="3">
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="4" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
